--- a/biology/Microbiologie/Corythion/Corythion.xlsx
+++ b/biology/Microbiologie/Corythion/Corythion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Corythion est un genre de l'ordre des Euglyphida, faisant partie des Rhizaria. Ce genre comprend sept espèces et plusieurs formes et variétés[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corythion est un genre de l'ordre des Euglyphida, faisant partie des Rhizaria. Ce genre comprend sept espèces et plusieurs formes et variétés.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Caractéristiques[1]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Amibes à thèque caractérisées par un test ovoïde, recouvert de plaques de taille semblable, rectangulaires à coins arrondis et distribuées aléatoirement sur le test. Ces plaques sont alignées autour du pseudostome et au bord du test. L'ouverture du pseudostome, de forme arrondie, ovale ou semi-circulaire, est invaginée et est en position ventrale sub-terminale. Elle est bordée de plaques avec une seule dent centrale. Certaines espèces possèdent une corne terminale ou sont décorées avec de courtes épines organiques ou siliceuses.
 </t>
@@ -542,7 +556,9 @@
           <t>Écologie[1]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Corythion sont des espèces essentiellement bactérivores, communes dans les mousses, les sphaignes et les soils.
 </t>
@@ -573,17 +589,19 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les espèces actuellement décrites sont[2]: 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les espèces actuellement décrites sont: 
 Corythion asperulum Schönborn, 1988
-Corythion delamarei[3] Bonnet, Thomas, 1960
+Corythion delamarei Bonnet, Thomas, 1960
 Corythion dubium Taranek, 1881
 C. dubium aerophila Decloitre, 1950
 C. dubium minima Chardez, 1969
-Corythion nebeloides[4] Bonnet, 1960
+Corythion nebeloides Bonnet, 1960
 Corythion orbicularis (Penard, 1910) Iudina, 1996
-Corythion pulchellum[5] Penard, 1890</t>
+Corythion pulchellum Penard, 1890</t>
         </is>
       </c>
     </row>
